--- a/Controller/Teensy Pinout.xlsx
+++ b/Controller/Teensy Pinout.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>VIN</t>
   </si>
@@ -84,9 +84,6 @@
     <t>BATTERY MONITOR?</t>
   </si>
   <si>
-    <t>FCPRES</t>
-  </si>
-  <si>
     <t>SPI</t>
   </si>
   <si>
@@ -109,6 +106,12 @@
   </si>
   <si>
     <t>EXTRA_VALVE</t>
+  </si>
+  <si>
+    <t>CAPCURR</t>
+  </si>
+  <si>
+    <t>FCPRESS</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -578,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,10 +589,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -613,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -621,22 +624,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -646,13 +634,28 @@
       <c r="B19" t="s">
         <v>7</v>
       </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
